--- a/awm/doc/log/log_201608040134_liuyice.xlsx
+++ b/awm/doc/log/log_201608040134_liuyice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9540" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9947" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
@@ -49,6 +49,87 @@
   </si>
   <si>
     <t>基本完成</t>
+  </si>
+  <si>
+    <t>复习</t>
+  </si>
+  <si>
+    <t>完成自己的实体类</t>
+  </si>
+  <si>
+    <t>差一点</t>
+  </si>
+  <si>
+    <t>检查分析</t>
+  </si>
+  <si>
+    <t>继续完成自己的实体类</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>运行代码</t>
+  </si>
+  <si>
+    <t>学习js对象</t>
+  </si>
+  <si>
+    <t>学习dom对象</t>
+  </si>
+  <si>
+    <t>学习多表连接查询</t>
+  </si>
+  <si>
+    <t>学习SQL</t>
+  </si>
+  <si>
+    <t>语句学习</t>
+  </si>
+  <si>
+    <t>操作数据库</t>
+  </si>
+  <si>
+    <t>了解xml</t>
+  </si>
+  <si>
+    <t>初步了解，并尝试深入</t>
+  </si>
+  <si>
+    <t>学习xpath和d4j</t>
+  </si>
+  <si>
+    <t>学习tomcat</t>
+  </si>
+  <si>
+    <t>学习算法</t>
+  </si>
+  <si>
+    <t>完成自己的js文件</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>查漏补缺</t>
+  </si>
+  <si>
+    <t>继续昨天的工作</t>
+  </si>
+  <si>
+    <t>仍有错误</t>
+  </si>
+  <si>
+    <t>进一步完成</t>
+  </si>
+  <si>
+    <t>导出数据</t>
+  </si>
+  <si>
+    <t>仍需修改</t>
+  </si>
+  <si>
+    <t>成功导出数据</t>
   </si>
 </sst>
 </file>
@@ -56,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -71,15 +152,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,52 +233,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,63 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +311,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -242,169 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,11 +507,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,6 +534,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,24 +585,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,191 +597,163 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1027,13 +1110,13 @@
       </c>
     </row>
     <row r="2" ht="60.75" customHeight="1" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>43216</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1047,13 +1130,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -1075,9 +1158,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" ht="22" customHeight="1" spans="1:4">
+      <c r="A2" s="1">
+        <v>43226</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1085,9 +1168,235 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:5">
+      <c r="A4" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="1:5">
+      <c r="A5" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:5">
+      <c r="A6" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:5">
+      <c r="A8" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="29" customHeight="1" spans="1:4">
+      <c r="A9" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1" spans="1:4">
+      <c r="A10" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:3">
+      <c r="A11" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="29" customHeight="1" spans="1:3">
+      <c r="A12" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:3">
+      <c r="A13" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:4">
+      <c r="A14" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1" spans="1:4">
+      <c r="A15" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="28" customHeight="1" spans="1:4">
+      <c r="A16" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="1:4">
+      <c r="A17" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:3">
+      <c r="A18" s="1">
+        <v>43261</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/awm/doc/log/log_201608040134_liuyice.xlsx
+++ b/awm/doc/log/log_201608040134_liuyice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>日期</t>
   </si>
@@ -130,6 +130,48 @@
   </si>
   <si>
     <t>成功导出数据</t>
+  </si>
+  <si>
+    <t>暑假开始</t>
+  </si>
+  <si>
+    <t>导入jquery的类库</t>
+  </si>
+  <si>
+    <t>导入echart的类库</t>
+  </si>
+  <si>
+    <t>初步认识echarts</t>
+  </si>
+  <si>
+    <t>在eclipse中使用echarts</t>
+  </si>
+  <si>
+    <t>继续学习使用</t>
+  </si>
+  <si>
+    <t>配合ajax生成图标</t>
+  </si>
+  <si>
+    <t>实现前端网页</t>
+  </si>
+  <si>
+    <t>前端美化</t>
+  </si>
+  <si>
+    <t>后端链接导出数据</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>继续完善</t>
+  </si>
+  <si>
+    <t>完善</t>
+  </si>
+  <si>
+    <t>检查补充</t>
   </si>
 </sst>
 </file>
@@ -138,11 +180,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,58 +195,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +223,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -249,35 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +300,42 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,12 +346,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,78 +508,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,85 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,15 +537,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,21 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -602,16 +613,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,19 +655,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,119 +676,120 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1110,13 +1146,13 @@
       </c>
     </row>
     <row r="2" ht="60.75" customHeight="1" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43216</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1130,10 +1166,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1386,16 +1422,175 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    <row r="20" ht="19" customHeight="1" spans="1:3">
+      <c r="A20" s="3">
+        <v>43306</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="19" customHeight="1" spans="1:3">
+      <c r="A21" s="3">
+        <v>43308</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="1:3">
+      <c r="A22" s="3">
+        <v>43311</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="1" spans="1:3">
+      <c r="A23" s="3">
+        <v>43315</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:3">
+      <c r="A24" s="3">
+        <v>43317</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="1:3">
+      <c r="A25" s="3">
+        <v>43318</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:3">
+      <c r="A26" s="3">
+        <v>43320</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="21" customHeight="1" spans="1:3">
+      <c r="A27" s="3">
+        <v>43325</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:3">
+      <c r="A28" s="3">
+        <v>43327</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>43330</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="21" customHeight="1" spans="1:3">
+      <c r="A30" s="3">
+        <v>43333</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="21" customHeight="1" spans="1:3">
+      <c r="A31" s="3">
+        <v>43336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:3">
+      <c r="A32" s="3">
+        <v>43337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="1:3">
+      <c r="A33" s="3">
+        <v>43341</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.297916666666667" footer="0.297916666666667"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
